--- a/17.12.21_MTS_PC3/concentrations.xlsx
+++ b/17.12.21_MTS_PC3/concentrations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Drug</t>
   </si>
@@ -39,7 +39,10 @@
     <t>N_replicates</t>
   </si>
   <si>
-    <t>OA</t>
+    <t>MMP62</t>
+  </si>
+  <si>
+    <t>MMAE</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +427,7 @@
         <v>200</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -450,6 +453,26 @@
         <v>8</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20000</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
